--- a/config/test_data.xlsx
+++ b/config/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lena/selenium2/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB22BF09-DFE9-9249-8C88-19DD2B9EFBF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487BE40-5ADD-E444-B543-4E66437A172F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16140" xr2:uid="{320C3215-E51F-0046-8A88-7CB9687BF24B}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16060" xr2:uid="{320C3215-E51F-0046-8A88-7CB9687BF24B}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pp.liu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,6 +44,18 @@
   </si>
   <si>
     <t>blankp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qw123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17795927513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,9 +63,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -97,14 +102,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +426,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -438,30 +440,30 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>123456</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
     </row>

--- a/config/test_data.xlsx
+++ b/config/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lena/selenium2/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487BE40-5ADD-E444-B543-4E66437A172F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116BDCFA-327B-5A46-B3B6-07F37B13E0F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16060" xr2:uid="{320C3215-E51F-0046-8A88-7CB9687BF24B}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16020" xr2:uid="{320C3215-E51F-0046-8A88-7CB9687BF24B}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
   </si>
   <si>
     <t>qw123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17795927513</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3355A09D-C5BB-7248-B33B-071D83E88DC6}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -441,31 +433,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
